--- a/progress/DatenbankFortschritt.xlsx
+++ b/progress/DatenbankFortschritt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmierung\Website\fpm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programme\xampp\htdocs\flightplan-manager\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C54023E-58F4-4026-B739-C325BF5EA1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A52074-DA68-4C51-A92B-47B031CF40C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3562" yWindow="360" windowWidth="23806" windowHeight="15015" xr2:uid="{86755699-8DC0-4AA6-896E-4214B081E670}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86755699-8DC0-4AA6-896E-4214B081E670}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ICAO</t>
   </si>
@@ -171,6 +169,72 @@
   </si>
   <si>
     <t>ETSI</t>
+  </si>
+  <si>
+    <t>EDAB</t>
+  </si>
+  <si>
+    <t>EDAC</t>
+  </si>
+  <si>
+    <t>EDAZ</t>
+  </si>
+  <si>
+    <t>EDBM</t>
+  </si>
+  <si>
+    <t>EDFM</t>
+  </si>
+  <si>
+    <t>EDFQ</t>
+  </si>
+  <si>
+    <t>EDHI</t>
+  </si>
+  <si>
+    <t>EDHK</t>
+  </si>
+  <si>
+    <t>EDLN</t>
+  </si>
+  <si>
+    <t>EDMA</t>
+  </si>
+  <si>
+    <t>EDMS</t>
+  </si>
+  <si>
+    <t>EDQC</t>
+  </si>
+  <si>
+    <t>EDQD</t>
+  </si>
+  <si>
+    <t>EDQG</t>
+  </si>
+  <si>
+    <t>EDQM</t>
+  </si>
+  <si>
+    <t>EDQT</t>
+  </si>
+  <si>
+    <t>EDRZ</t>
+  </si>
+  <si>
+    <t>EDTD</t>
+  </si>
+  <si>
+    <t>EDTM</t>
+  </si>
+  <si>
+    <t>EDTY</t>
+  </si>
+  <si>
+    <t>EDWE</t>
+  </si>
+  <si>
+    <t>EDWI</t>
   </si>
 </sst>
 </file>
@@ -789,17 +853,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450DC304-378C-4D61-ADC6-90A3FC9E4816}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="15.9296875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="1" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -825,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -855,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -885,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -915,7 +979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -945,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -975,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -1335,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -1515,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1575,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1605,7 +1669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -1635,7 +1699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
@@ -1665,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1755,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1815,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>41</v>
       </c>
@@ -1845,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1875,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>43</v>
       </c>
@@ -1905,7 +1969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1935,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>45</v>
       </c>
@@ -1965,623 +2029,667 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="B40" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
       <c r="B41" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
       <c r="B42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
       <c r="B43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
       <c r="B44" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
       <c r="B45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
       <c r="B46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
       <c r="B47" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
       <c r="B48" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
       <c r="B49" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
       <c r="B50" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
       <c r="B51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
       <c r="B52" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
       <c r="B53" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
       <c r="B54" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
       <c r="B55" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
       <c r="B56" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
       <c r="B57" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
       <c r="B58" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
       <c r="B59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
       <c r="B60" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
       <c r="B61" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="11">
         <v>0</v>
@@ -2609,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="11">
         <v>0</v>
@@ -2637,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="11">
         <v>0</v>
@@ -2665,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11">
         <v>0</v>
@@ -2693,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11">
         <v>0</v>
@@ -2721,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11">
         <v>0</v>
@@ -2749,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="11">
         <v>0</v>
@@ -2777,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11">
         <v>0</v>
@@ -2805,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11">
         <v>0</v>
@@ -2833,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11">
         <v>0</v>
@@ -2861,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11">
         <v>0</v>
@@ -2889,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11">
         <v>0</v>
@@ -2917,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11">
         <v>0</v>
@@ -2945,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="11">
         <v>0</v>
@@ -2973,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="11">
         <v>0</v>
@@ -3001,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="11">
         <v>0</v>
@@ -3029,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="11">
         <v>0</v>
@@ -3057,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="11">
         <v>0</v>
@@ -3085,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="11">
         <v>0</v>
@@ -3113,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="11">
         <v>0</v>
@@ -3141,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="11">
         <v>0</v>
@@ -3169,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="11">
         <v>0</v>
@@ -3197,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="11">
         <v>0</v>
@@ -3225,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="11">
         <v>0</v>
@@ -3253,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="11">
         <v>0</v>
@@ -3281,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="11">
         <v>0</v>
@@ -3309,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="11">
         <v>0</v>
@@ -3337,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="11">
         <v>0</v>
@@ -3365,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="11">
         <v>0</v>
@@ -3393,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="11">
         <v>0</v>
@@ -3421,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="11">
         <v>0</v>
@@ -3449,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="11">
         <v>0</v>
@@ -3477,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="11">
         <v>0</v>
@@ -3505,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="11">
         <v>0</v>
@@ -3533,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="11">
         <v>0</v>
@@ -3561,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="11">
         <v>0</v>
@@ -3589,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="11">
         <v>0</v>
@@ -3617,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="11">
         <v>0</v>
@@ -3645,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="15">
         <v>0</v>
